--- a/WatirTestData.xlsx
+++ b/WatirTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\watir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Year04\HK1\QA_and_AppTesting\_Watir_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101C926-0585-4783-AB1A-F337DB2C81B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31CF820-7AAC-415A-9A12-8289D1897A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{5A47A7BD-066B-4854-85C0-E2433C4179D9}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15285" xr2:uid="{5A47A7BD-066B-4854-85C0-E2433C4179D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>test@gmail.com</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>Email or Password is incorrect!</t>
+  </si>
+  <si>
+    <t>test@fit.iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>Login successful!</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email check</t>
+  </si>
+  <si>
+    <t>password check</t>
+  </si>
+  <si>
+    <t>login check</t>
   </si>
 </sst>
 </file>
@@ -150,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,66 +467,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EB9538-1827-40F1-AB5B-3E53D347CBE9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>921382032</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>91285432</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -513,7 +543,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>912341232451</v>
+        <v>91285432</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -526,8 +556,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="1">
+        <v>912341232451</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -541,13 +571,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -558,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -572,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -585,7 +615,9 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -594,30 +626,59 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
